--- a/Documents/Estimation - tuyen sinh DH TBD.xlsx
+++ b/Documents/Estimation - tuyen sinh DH TBD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\OneDrive\Documents\GitHub\tuyensinh_dhtbd\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\OneDrive\Documents\GitHub\PhanMemXetTuyen_TBDUni\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533EAEF8-C32A-4812-8891-0F4A5EF05EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0ED190-CA30-4EF3-B8AD-FB5E087FEF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Công nghệ</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Lập trình &amp; Phát triển phần mềm trên nền tảng web</t>
-  </si>
-  <si>
     <t>Tổng thời gian phát triển (hrs)</t>
   </si>
   <si>
@@ -87,76 +84,108 @@
     <t>Bảo trì phần mềm</t>
   </si>
   <si>
-    <t>Tự nhập số phiếu ĐKXT</t>
-  </si>
-  <si>
-    <t>Sửa thông tin hồ sơ của thí sinh</t>
-  </si>
-  <si>
-    <t>Nhận hồ sơ ĐKXT, note thông tin cho thí sinh, in phiếu tiếp nhận hồ sơ ĐKXT</t>
-  </si>
-  <si>
-    <t>Bao gồm tất cả chức năng của thí sinh và admin</t>
-  </si>
-  <si>
-    <t>Chạy xét tuyển</t>
-  </si>
-  <si>
-    <t>Thông báo kết quả cho thí sinh: mail, sms</t>
-  </si>
-  <si>
-    <t>Chuyển hồ sơ từ đợt này sang đợt khác theo lựa chọn hoặc tất cả</t>
-  </si>
-  <si>
     <t>Xuất báo cáo, dữ liệu: tuỳ chọn thời gian, đợt xét tuyển.</t>
   </si>
   <si>
     <t>Setup đợt tuyển sinh</t>
   </si>
   <si>
-    <t>Setup dữ liệu đầu vào: Danh sách trường phổ thông hàng năm (hệ thống tự cập nhật ưu tiên khu vực khi cập nhật thông tin trường PT muộn), ngành xét tuyển, dân tộc và điều kiện xét tuyển</t>
-  </si>
-  <si>
     <t>PHẦN MỀM TUYỂN SINH - ĐH THÁI BÌNH DƯƠNG</t>
   </si>
   <si>
-    <t>Reset password thí sinh</t>
-  </si>
-  <si>
     <t>Đăng ký xét tuyển</t>
   </si>
   <si>
     <t>Tổng số tháng (months)</t>
   </si>
   <si>
-    <t>Bao gồm chức năng của thí sinh (đăng ký + tạo hồ sơ đăng ký + điền hồ sơ + tab hiển thị/liệt kê hồ sơ)</t>
-  </si>
-  <si>
     <t>Quản lý hồ sơ</t>
   </si>
   <si>
     <t>Quản lý hệ thống</t>
   </si>
   <si>
-    <t>Đăng nhập hệ thống</t>
-  </si>
-  <si>
-    <t>Điều kiện xét tuyển</t>
-  </si>
-  <si>
-    <t>Ngành xét tuyển</t>
-  </si>
-  <si>
-    <t>Hồ sơ và cách đăng ký</t>
-  </si>
-  <si>
-    <t>Hướng dẫn nhập học</t>
-  </si>
-  <si>
-    <t>Khám phá TBD</t>
-  </si>
-  <si>
-    <t>- Hiển thị thông tin</t>
+    <t>Module học sinh - Lập trình &amp; Phát triển phần mềm trên nền tảng web</t>
+  </si>
+  <si>
+    <t>Module nhân viên - Lập trình &amp; Phát triển phần mềm trên nền tảng desktop</t>
+  </si>
+  <si>
+    <t>Hướng dẫn ĐKXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng ký + Đăng nhập </t>
+  </si>
+  <si>
+    <t>Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>- Hỗ trợ lấy lại mật khẩu thông qua SMS</t>
+  </si>
+  <si>
+    <t>- Kích hoạt SMS người dùng</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Điền TT hồ sơ + Đăng ký xét tuyển</t>
+  </si>
+  <si>
+    <t>Điều chỉnh hồ sơ</t>
+  </si>
+  <si>
+    <t>Nộp phiếu đăng ký online</t>
+  </si>
+  <si>
+    <t>In phiếu đăng ký online</t>
+  </si>
+  <si>
+    <t>Hồ sơ của tôi</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>Hỗ trợ xét điểm cao nhất</t>
+  </si>
+  <si>
+    <t>- Đánh dấu mốc hoàn thành sau khi PĐT xác nhận đã nhận được phiếu đăng ký</t>
+  </si>
+  <si>
+    <t>Danh sách trường phổ thông hàng năm (hệ thống tự cập nhật ưu tiên khu vực khi cập nhật thông tin trường PT muộn), ngành xét tuyển, dân tộc và điều kiện xét tuyển</t>
+  </si>
+  <si>
+    <t>Báo cáo</t>
+  </si>
+  <si>
+    <t>- Phần quyền Staff/Admin
+- Staff chỉ có thể quản lý hồ sơ
+- Admin bao gồm tất cả chức năng của thí sinh + staff, bên cạnh đó có thẻ xuất báo cáo, setup đợt tuyển sinh</t>
+  </si>
+  <si>
+    <t>Quản lý người dùng</t>
+  </si>
+  <si>
+    <t>Phần quyền staff/admin</t>
+  </si>
+  <si>
+    <t>Báo cáo hồ sơ thí sinh</t>
+  </si>
+  <si>
+    <t>- Điền TT hồ sơ + ĐKXT 
+- Tự nhập số phếu ĐKXT
+- Sửa thông tin hồ sơ
+- In phiếu ĐKXT
+- Note thông tin cho thí sinh
+- Di chuyển hồ sơ từ đợt này sang đợt khác theo lựa chọn hoặc tất cả
+- Gửi kết qua cho thí sinh thông qua Email, SMS</t>
+  </si>
+  <si>
+    <t>Setup dữ liệu đầu vào</t>
+  </si>
+  <si>
+    <t>chức năng này là setup thông tin đầu vào dữ liệu tuyển sinh ? Cụ thể là</t>
   </si>
 </sst>
 </file>
@@ -172,32 +201,38 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -230,7 +265,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -320,19 +361,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -431,11 +459,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -480,7 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -491,65 +549,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,56 +604,87 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,10 +966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1012"/>
+  <dimension ref="A1:E1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -907,23 +982,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="A1" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -944,13 +1019,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1011,353 +1086,340 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="50">
+        <v>1</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="24">
+        <v>6</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="24">
+        <v>6</v>
+      </c>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="24">
+        <v>24</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="24">
+        <v>16</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="51"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="24">
+        <v>24</v>
+      </c>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="51"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="24">
+        <v>6</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="51"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="24">
+        <v>8</v>
+      </c>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="51"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="24">
+        <v>24</v>
+      </c>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="24">
+        <v>6</v>
+      </c>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" s="35" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64">
+        <v>1</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="24">
+        <v>56</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="64">
+        <v>3</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="24">
+        <v>16</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="74">
+        <v>5</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="35" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="75"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="73">
+        <v>16</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="75"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="24">
         <v>12</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="67">
+      <c r="E26" s="70"/>
+    </row>
+    <row r="27" spans="1:5" s="35" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="76"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="24">
+        <v>12</v>
+      </c>
+      <c r="E27" s="60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+    </row>
+    <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="17">
+        <f>SUM(D11:D25) +D8</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="17">
+        <f>20%*D29</f>
+        <v>60.400000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="17">
+        <f>D29+D30</f>
+        <v>362.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C32" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="17">
+        <f>D31/80</f>
+        <v>4.5299999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="33"/>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="33"/>
+    </row>
+    <row r="37" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="30">
         <v>1</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="13">
-        <v>8</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="68"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="13">
-        <v>16</v>
-      </c>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="68"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="25">
-        <v>16</v>
-      </c>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" spans="1:5" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="68"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="26">
-        <v>12</v>
-      </c>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="68"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57">
-        <v>2</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="64">
-        <v>8</v>
-      </c>
-      <c r="E17" s="65"/>
-    </row>
-    <row r="18" spans="1:5" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="26">
-        <v>12</v>
-      </c>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="26">
-        <v>8</v>
-      </c>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="26">
-        <v>12</v>
-      </c>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="26">
-        <v>48</v>
-      </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="26">
-        <v>8</v>
-      </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57">
-        <v>3</v>
-      </c>
-      <c r="B23" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="64">
-        <v>8</v>
-      </c>
-      <c r="E23" s="66"/>
-    </row>
-    <row r="24" spans="1:5" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="26">
-        <v>32</v>
-      </c>
-      <c r="E24" s="27"/>
-    </row>
-    <row r="25" spans="1:5" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="26">
-        <v>32</v>
-      </c>
-      <c r="E25" s="27"/>
-    </row>
-    <row r="26" spans="1:5" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="26">
-        <v>32</v>
-      </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="1:5" s="19" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="26">
-        <v>32</v>
-      </c>
-      <c r="E27" s="27"/>
-    </row>
-    <row r="28" spans="1:5" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
-      <c r="C28" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="23">
-        <v>32</v>
-      </c>
-      <c r="E28" s="32"/>
-    </row>
-    <row r="29" spans="1:5" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="61"/>
-      <c r="C29" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="26">
-        <v>32</v>
-      </c>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30" spans="1:5" s="19" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="26">
-        <v>24</v>
-      </c>
-      <c r="E30" s="27"/>
-    </row>
-    <row r="31" spans="1:5" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="17">
-        <f>SUM(D11:D30) +D8</f>
-        <v>460</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C33" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="17">
-        <f>20%*D32</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="17">
-        <f>D32+D33</f>
-        <v>552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D35" s="17">
-        <f>D34/120</f>
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="56"/>
+      <c r="E37" s="33"/>
     </row>
     <row r="38" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35">
+        <v>18</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="30">
         <v>0.5</v>
       </c>
-      <c r="E38" s="44"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E39" s="44"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="34"/>
-      <c r="D40" s="36">
-        <v>1</v>
-      </c>
-      <c r="E40" s="44"/>
-    </row>
-    <row r="41" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="34"/>
-      <c r="D41" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="44"/>
-    </row>
-    <row r="42" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D43" s="15"/>
-    </row>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="42" spans="1:5" s="27" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:5" s="33" customFormat="1" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1373,9 +1435,15 @@
     <row r="58" spans="4:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="59" spans="4:4" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="60" spans="4:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="4:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="4:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="4:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D61" s="15"/>
+    </row>
+    <row r="62" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D62" s="15"/>
+    </row>
+    <row r="63" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D63" s="15"/>
+    </row>
     <row r="64" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D64" s="15"/>
     </row>
@@ -4214,28 +4282,18 @@
     <row r="1009" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D1009" s="15"/>
     </row>
-    <row r="1010" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1010" s="15"/>
-    </row>
-    <row r="1011" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1011" s="15"/>
-    </row>
-    <row r="1012" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1012" s="15"/>
-    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="B23:B30"/>
+  <mergeCells count="10">
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A21:E21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="B11:B20"/>
+    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Estimation - tuyen sinh DH TBD.xlsx
+++ b/Documents/Estimation - tuyen sinh DH TBD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\OneDrive\Documents\GitHub\PhanMemXetTuyen_TBDUni\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0ED190-CA30-4EF3-B8AD-FB5E087FEF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E8CE36-EA44-4810-A2FD-D9087439819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,7 +265,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,12 +293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,12 +574,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,6 +643,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,9 +658,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,75 +668,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -982,23 +976,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -1019,13 +1013,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="47"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -1086,19 +1080,19 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
+      <c r="A11" s="70">
         <v>1</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="57" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -1112,21 +1106,21 @@
       </c>
     </row>
     <row r="12" spans="1:5" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="13">
         <v>6</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="37" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="31" t="s">
         <v>29</v>
       </c>
@@ -1136,22 +1130,22 @@
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="42"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="24">
         <v>24</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="55" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="39" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="24">
@@ -1160,8 +1154,8 @@
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="42"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="32" t="s">
         <v>38</v>
       </c>
@@ -1171,22 +1165,22 @@
       <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" s="35" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="24">
         <v>6</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="57" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="41" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="24">
@@ -1195,9 +1189,9 @@
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="56" t="s">
+      <c r="A19" s="71"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="24">
@@ -1206,9 +1200,9 @@
       <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="56" t="s">
+      <c r="A20" s="72"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="40" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="24">
@@ -1217,34 +1211,34 @@
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="63"/>
     </row>
     <row r="22" spans="1:5" s="35" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64">
+      <c r="A22" s="45">
         <v>1</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="24">
         <v>56</v>
       </c>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="52" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="35" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64">
+      <c r="A23" s="45">
         <v>3</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="46" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="32" t="s">
@@ -1253,59 +1247,59 @@
       <c r="D23" s="24">
         <v>16</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="44" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="74">
+      <c r="A24" s="54">
         <v>5</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="62" t="s">
+      <c r="D24" s="75"/>
+      <c r="E24" s="76" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="35" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="68" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="53">
         <v>16</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="47" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="35" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="75"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="69" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="49" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="24">
         <v>12</v>
       </c>
-      <c r="E26" s="70"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" s="35" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="76"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="69" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="49" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="24">
         <v>12</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="43" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1325,7 +1319,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="16" t="s">
         <v>13</v>
       </c>
@@ -1356,13 +1350,13 @@
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="63"/>
     </row>
     <row r="35" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
@@ -4284,6 +4278,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="A21:E21"/>
@@ -4293,7 +4288,6 @@
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A11:A20"/>
     <mergeCell ref="B11:B20"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
